--- a/biology/Médecine/Épicondylite/Épicondylite.xlsx
+++ b/biology/Médecine/Épicondylite/Épicondylite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89picondylite</t>
+          <t>Épicondylite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épicondylite latérale du coude, le tennis elbow ou l'épicondylalgie du coude sont différents termes pour désigner la douleur à l'insertion des muscles épicondyliens en latéral du coude souvent associée à un mécanisme de sur-utilisation des extenseurs du poignet. Selon les dernières études, peu de preuves d'inflammation ont été relevées dans le problème. Malgré le résultat de ces études, le terme épicondylite est couramment utilisé, mais devrait être remplacé par le terme tendinopathie des épicondyliens ou épicondylalgie latérale du coude afin d'être juste.
-Dans 97 % des cas, les fibres profondes des tendons du court extenseur radial du carpe sont atteintes, et dans 50 % des cas le tendon de l'extenseur commun des doigts serait également affecté[1]. Un cal osseux pourrait se former à leur origine et serait visible à l'examen radiographique dans 22 % des cas, et seulement certains cas isolés montreraient des signes de calcification à l'intérieur même des tendons[1].
+Dans 97 % des cas, les fibres profondes des tendons du court extenseur radial du carpe sont atteintes, et dans 50 % des cas le tendon de l'extenseur commun des doigts serait également affecté. Un cal osseux pourrait se former à leur origine et serait visible à l'examen radiographique dans 22 % des cas, et seulement certains cas isolés montreraient des signes de calcification à l'intérieur même des tendons.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89picondylite</t>
+          <t>Épicondylite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Portrait clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Individus (H/F) habituellement âgés entre 40-60 ans se plaignant de douleurs variables et progressives en latéral du coude lors d’activités du membre supérieur dominant, et en particulier lorsque les mouvements sont combinés à la préhension.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89picondylite</t>
+          <t>Épicondylite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de la maladie qui affecte le plus fréquemment le coude avec une incidence de 0,4 % et une prévalence entre 4 % et 5 % chez une population générale [2],[3]. Selon les données de la CSST, au Québec en 2009, les tendinopathies du coude (latérales et médiales) totalisent environ 11 % des accidents de travail liés à une sur-utilisation[4]. La durée moyenne d‘un arrêt de travail est de 83,7 jours (d'indemnisation)[Où ?] et le risque de récidive est de 10,6 %[4]. Selon la littérature scientifique, les symptômes dureraient en moyenne de 6 mois à 2 ans, récidiveraient dans 26 % des cas et provoqueraient des inconforts mineurs dans 40 % des cas, nuisant ainsi à un rendement fonctionnel optimal[3],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de la maladie qui affecte le plus fréquemment le coude avec une incidence de 0,4 % et une prévalence entre 4 % et 5 % chez une population générale ,. Selon les données de la CSST, au Québec en 2009, les tendinopathies du coude (latérales et médiales) totalisent environ 11 % des accidents de travail liés à une sur-utilisation. La durée moyenne d‘un arrêt de travail est de 83,7 jours (d'indemnisation)[Où ?] et le risque de récidive est de 10,6 %. Selon la littérature scientifique, les symptômes dureraient en moyenne de 6 mois à 2 ans, récidiveraient dans 26 % des cas et provoqueraient des inconforts mineurs dans 40 % des cas, nuisant ainsi à un rendement fonctionnel optimal,.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89picondylite</t>
+          <t>Épicondylite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Peu de preuves montrent la présence d'inflammation dans l'atteinte des tendons des extenseurs du poignet liée à un mécanisme de sur-utilisation[6],[7]. La dégénérescence des tendons des extenseurs du poignet et une partie du phénomène nociceptif seraient grandement impliquées dans un mécanisme angiofibroblastique local[7],[8],[9],[10],[11],[12],[13]. Toutefois, la génération et le maintien des symptômes de l'épicondylite s'expliqueraient par un ensemble de phénomènes beaucoup plus complexes :
-des atteintes motrice et proprioceptive[10],[14],[15] seraient en cause dans le processus d'entretien de la pathologie, favorisant ainsi l'adoption d'un mauvais contrôle moteur et des changements au niveau de la biomécanique du coude ;
-des modifications du système neurologique nociceptif périphérique et central, à plus long terme, faciliteraient la transmission de la douleur, et donc amplifieraient le processus algique[1],[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Peu de preuves montrent la présence d'inflammation dans l'atteinte des tendons des extenseurs du poignet liée à un mécanisme de sur-utilisation,. La dégénérescence des tendons des extenseurs du poignet et une partie du phénomène nociceptif seraient grandement impliquées dans un mécanisme angiofibroblastique local. Toutefois, la génération et le maintien des symptômes de l'épicondylite s'expliqueraient par un ensemble de phénomènes beaucoup plus complexes :
+des atteintes motrice et proprioceptive seraient en cause dans le processus d'entretien de la pathologie, favorisant ainsi l'adoption d'un mauvais contrôle moteur et des changements au niveau de la biomécanique du coude ;
+des modifications du système neurologique nociceptif périphérique et central, à plus long terme, faciliteraient la transmission de la douleur, et donc amplifieraient le processus algique,.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89picondylite</t>
+          <t>Épicondylite</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,22 +626,18 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Troubles articulaires
-Instabilité postéro-latérale
+          <t>Troubles articulaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Instabilité postéro-latérale
 Hypomobilité
 Corps étranger
 Ostéochondrite disséquante
 Hypertrophie frange synoviale
-Arthrose
-Neuropathies périphériques
-Syndrome du tunnel radial
-Syndrome du tunnel du nerf interosseux postérieur
-Douleurs référées
-Dysfonction rachis cervical
-Syndrome douloureux myofascial
-Syndrome du mésenchyme
-(Maladie du tissu conjonctif.)
-</t>
+Arthrose</t>
         </is>
       </c>
     </row>
@@ -633,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89picondylite</t>
+          <t>Épicondylite</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,10 +662,123 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Neuropathies périphériques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Syndrome du tunnel radial
+Syndrome du tunnel du nerf interosseux postérieur</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Épicondylite</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89picondylite</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Douleurs référées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dysfonction rachis cervical
+Syndrome douloureux myofascial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Épicondylite</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89picondylite</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Syndrome du mésenchyme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Maladie du tissu conjonctif.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Épicondylite</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89picondylite</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Traitement en physiothérapie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le renforcement se distingue comme la modalité de choix en physiothérapie à court et moyen terme.
 Le laser et la thérapie manuelle ressortent comme étant des traitements efficaces et qui, lorsque combinés à du renforcement, permettent de diminuer le temps de traitement et avoir de meilleurs résultats.
@@ -665,31 +792,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89picondylite</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89picondylite</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Épicondylite</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89picondylite</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Traitement médicamenteux</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les AINS sont utiles en première ligne pour diminuer la douleur mais leur effet est limité et de courte durée.
 Les corticostéroïdes ont démontré un bon effet à court terme mais les résultats à long terme sont peu importants voire néfastes pour le tendon. Ils ont longtemps été considérés comme le traitement de référence pour les épicondylites mais comme ils peuvent être néfastes pour le tendon, on commence à utiliser d'autres techniques plus récentes. Malgré une efficacité potentielle, les évidences sur les injections de toxine botulinique sont mitigées et les faiblesses engendrées par ces injections sont un problème non négligeable. Les timbres de trinitrine amènent des résultats intéressants mais beaucoup d‘effets secondaires sont documentés, principalement des migraines et des dermatites.
